--- a/clean_chrr-wphi/docs/year_matching.xlsx
+++ b/clean_chrr-wphi/docs/year_matching.xlsx
@@ -1161,7 +1161,7 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1180,9 +1180,6 @@
     </xf>
     <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -11658,7 +11655,7 @@
       <c r="Q404" s="1"/>
     </row>
     <row r="405" ht="14.25">
-      <c r="A405" s="7" t="s">
+      <c r="A405" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B405" s="1">
@@ -11687,7 +11684,7 @@
       <c r="Q405" s="1"/>
     </row>
     <row r="406" ht="14.25">
-      <c r="A406" s="7" t="s">
+      <c r="A406" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B406" s="1">
@@ -11716,7 +11713,7 @@
       <c r="Q406" s="1"/>
     </row>
     <row r="407" ht="14.25">
-      <c r="A407" s="7" t="s">
+      <c r="A407" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B407" s="1">
